--- a/Excel Workbooks/100/100Pi9.xlsx
+++ b/Excel Workbooks/100/100Pi9.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B15FAD0-10F3-4100-B608-718F506DE5E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5978798703544008</v>
+        <v>0.59787987035440082</v>
       </c>
       <c r="B2">
-        <v>0.4105815727968152</v>
+        <v>0.41058157279681518</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.3015926535897933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.30159265358979331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.04796617335982889</v>
+        <v>4.796617335982889E-2</v>
       </c>
       <c r="B3">
-        <v>0.5866212295217755</v>
+        <v>0.58662122952177553</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-9.59999232380345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-9.5999923238034501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.9226897665343078</v>
+        <v>0.92268976653430779</v>
       </c>
       <c r="B4">
-        <v>0.3360737879781868</v>
+        <v>0.33607378797818682</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,777 +483,777 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5262564061311276</v>
+        <v>0.52625640613112756</v>
       </c>
       <c r="B5">
-        <v>0.8645496930190558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.86454969301905582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3547726676590782</v>
+        <v>0.35477266765907822</v>
       </c>
       <c r="B6">
-        <v>0.3936414199351979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.39364141993519791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.9276508080184984</v>
+        <v>0.92765080801849842</v>
       </c>
       <c r="B7">
-        <v>0.5179310946007313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.51793109460073128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.0518840353989054</v>
+        <v>5.1884035398905397E-2</v>
       </c>
       <c r="B8">
-        <v>0.5084829447265962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.50848294472659616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5737186315302045</v>
+        <v>0.57371863153020453</v>
       </c>
       <c r="B9">
-        <v>0.1826137658005622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.18261376580056221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.8275774111864173</v>
+        <v>0.82757741118641726</v>
       </c>
       <c r="B10">
-        <v>0.6614715105878785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.66147151058787845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2822785384960599</v>
+        <v>0.28227853849605988</v>
       </c>
       <c r="B11">
-        <v>0.5579701374961664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.55797013749616642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.1760572073773848</v>
+        <v>0.17605720737738481</v>
       </c>
       <c r="B12">
-        <v>0.04919393379502102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.9193933795021023E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.01988597588110597</v>
+        <v>1.988597588110597E-2</v>
       </c>
       <c r="B13">
-        <v>0.1786859522994851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.17868595229948511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.7151934446591306</v>
+        <v>0.71519344465913059</v>
       </c>
       <c r="B14">
-        <v>0.8148583096161982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.81485830961619821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.7174860023641053</v>
+        <v>0.71748600236410531</v>
       </c>
       <c r="B15">
-        <v>0.6969943470219596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.69699434702195961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.3042157083626775</v>
+        <v>0.30421570836267747</v>
       </c>
       <c r="B16">
-        <v>0.9818725449496777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.98187254494967768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.2678378806306401</v>
+        <v>0.26783788063064012</v>
       </c>
       <c r="B17">
         <v>0.2285605855821061</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.6899834635195581</v>
+        <v>0.68998346351955808</v>
       </c>
       <c r="B18">
-        <v>0.8108902297201556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.81089022972015556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.6687824376566852</v>
+        <v>0.66878243765668521</v>
       </c>
       <c r="B19">
-        <v>0.9847290822270074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.98472908222700739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.4282783308037666</v>
+        <v>0.42827833080376659</v>
       </c>
       <c r="B20">
-        <v>0.722370221053487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.72237022105348703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.3015036076595954</v>
+        <v>0.30150360765959539</v>
       </c>
       <c r="B21">
-        <v>0.08865300498053896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>8.8653004980538963E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.2257052280989831</v>
+        <v>0.22570522809898311</v>
       </c>
       <c r="B22">
-        <v>0.904386544646669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.90438654464666901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.8954054008078191</v>
+        <v>0.89540540080781905</v>
       </c>
       <c r="B23">
-        <v>0.7977134637676415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.79771346376764152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.4974888003306442</v>
+        <v>0.49748880033064419</v>
       </c>
       <c r="B24">
-        <v>0.5713420400673657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.57134204006736566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.8633433459703942</v>
+        <v>0.86334334597039419</v>
       </c>
       <c r="B25">
-        <v>0.5340272856839929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.53402728568399294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.9606106427219463</v>
       </c>
       <c r="B26">
-        <v>0.2987044985212176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.29870449852121761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.415566577321531</v>
+        <v>0.41556657732153102</v>
       </c>
       <c r="B27">
         <v>0.1101394925792593</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.05654538818594201</v>
+        <v>5.6545388185942007E-2</v>
       </c>
       <c r="B28">
-        <v>0.7624001333253851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.76240013332538514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8260531028717997</v>
+        <v>0.82605310287179967</v>
       </c>
       <c r="B29">
-        <v>0.6682876833652079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.66828768336520794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.355412448144042</v>
+        <v>0.35541244814404199</v>
       </c>
       <c r="B30">
-        <v>0.5043048438913514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.50430484389135144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.04872811710341074</v>
+        <v>4.872811710341074E-2</v>
       </c>
       <c r="B31">
-        <v>0.8821631950527273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.88216319505272733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.83553640614238</v>
+        <v>0.83553640614238001</v>
       </c>
       <c r="B32">
-        <v>0.1582362575486916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.15823625754869161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.8997863686418884</v>
+        <v>0.89978636864188843</v>
       </c>
       <c r="B33">
-        <v>0.5991630858711557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.59916308587115574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.8214158220128435</v>
+        <v>0.82141582201284347</v>
       </c>
       <c r="B34">
-        <v>0.05752226114445591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>5.7522261144455911E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.7497397913323336</v>
+        <v>0.74973979133233359</v>
       </c>
       <c r="B35">
         <v>0.1978983298686382</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.9175486005949296</v>
       </c>
       <c r="B36">
-        <v>0.7352129487055993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.73521294870559928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.1161313493623722</v>
       </c>
       <c r="B37">
-        <v>0.6646925155944091</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.66469251559440912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.5330415847278326</v>
+        <v>0.53304158472783258</v>
       </c>
       <c r="B38">
         <v>0.8418029833598395</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.4845742278639155</v>
+        <v>0.48457422786391552</v>
       </c>
       <c r="B39">
-        <v>0.8953428127636077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.89534281276360772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.2528769185459984</v>
+        <v>0.25287691854599842</v>
       </c>
       <c r="B40">
-        <v>0.5794373624929519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.57943736249295186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.001223938990796314</v>
+        <v>1.2239389907963141E-3</v>
       </c>
       <c r="B41">
-        <v>0.2256903283178883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.22569032831788829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.9193389682493385</v>
+        <v>0.91933896824933847</v>
       </c>
       <c r="B42">
-        <v>0.8734450775087632</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.87344507750876321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.9092901415466306</v>
+        <v>0.90929014154663057</v>
       </c>
       <c r="B43">
-        <v>0.5401911034322986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.54019110343229859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.4504498310861937</v>
+        <v>0.45044983108619369</v>
       </c>
       <c r="B44">
-        <v>0.2538800550750634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.25388005507506339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.979156517545209</v>
+        <v>0.97915651754520905</v>
       </c>
       <c r="B45">
-        <v>0.7975317919798922</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.79753179197989221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.9900584443843975</v>
       </c>
       <c r="B46">
-        <v>0.4333991074656129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.43339910746561289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.9844795876984485</v>
+        <v>0.98447958769844846</v>
       </c>
       <c r="B47">
-        <v>0.4280074948777258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.42800749487772582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.3596293033577961</v>
+        <v>0.35962930335779608</v>
       </c>
       <c r="B48">
-        <v>0.390013471898826</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.39001347189882601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.4651281229822715</v>
+        <v>0.46512812298227152</v>
       </c>
       <c r="B49">
-        <v>0.7266683331681664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.72666833316816637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.4609694959521046</v>
+        <v>0.46096949595210462</v>
       </c>
       <c r="B50">
-        <v>0.533473857298027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.53347385729802699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.1078685440898878</v>
       </c>
       <c r="B51">
-        <v>0.2172099235708227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.21720992357082269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.0281514385116064</v>
+        <v>2.81514385116064E-2</v>
       </c>
       <c r="B52">
-        <v>0.3478391271711861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.34783912717118609</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.8809481517872075</v>
+        <v>0.88094815178720753</v>
       </c>
       <c r="B53">
-        <v>0.7043026334648889</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.70430263346488886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.3033635588411662</v>
+        <v>0.30336355884116623</v>
       </c>
       <c r="B54">
-        <v>0.6985298909700027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.69852989097000273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.8422262424712927</v>
+        <v>0.84222624247129274</v>
       </c>
       <c r="B55">
-        <v>0.4206641897259257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.42066418972592567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.5198303387102564</v>
+        <v>0.51983033871025641</v>
       </c>
       <c r="B56">
-        <v>0.7543132671405735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.75431326714057345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.6769479996917034</v>
+        <v>0.67694799969170338</v>
       </c>
       <c r="B57">
-        <v>0.08281031032625275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>8.2810310326252745E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.175306276130762</v>
       </c>
       <c r="B58">
-        <v>0.4123258090347255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.41232580903472549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.826918207863643</v>
+        <v>0.82691820786364301</v>
       </c>
       <c r="B59">
-        <v>0.3837452438023853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.38374524380238528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.6089243778145544</v>
+        <v>0.60892437781455444</v>
       </c>
       <c r="B60">
-        <v>0.579477518920717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.57947751892071697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.7350528941083138</v>
+        <v>0.73505289410831376</v>
       </c>
       <c r="B61">
-        <v>0.4715854194995767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.47158541949957672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.5093640525297376</v>
       </c>
       <c r="B62">
-        <v>0.09348992077431773</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>9.3489920774317725E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.6306952756961507</v>
+        <v>0.63069527569615069</v>
       </c>
       <c r="B63">
-        <v>0.07057555160632611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>7.0575551606326115E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.4301167681376454</v>
+        <v>0.43011676813764538</v>
       </c>
       <c r="B64">
-        <v>0.6261922766882901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.62619227668829014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.5958906989101712</v>
+        <v>0.59589069891017121</v>
       </c>
       <c r="B65">
-        <v>0.9494511628778212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.94945116287782116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.5728783703751101</v>
+        <v>0.57287837037511014</v>
       </c>
       <c r="B66">
-        <v>0.4990016374779118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.49900163747791182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.6930972443762655</v>
+        <v>0.69309724437626552</v>
       </c>
       <c r="B67">
-        <v>0.2080223385605771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.20802233856057711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.7012806661477901</v>
+        <v>0.70128066614779005</v>
       </c>
       <c r="B68">
-        <v>0.3990976324362078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.39909763243620783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.1606636166933241</v>
       </c>
       <c r="B69">
-        <v>0.319349302928457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.31934930292845698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.4675534922873237</v>
+        <v>0.46755349228732368</v>
       </c>
       <c r="B70">
-        <v>0.5785225005583305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.57852250055833054</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.3479555477892949</v>
+        <v>0.34795554778929488</v>
       </c>
       <c r="B71">
-        <v>0.4315417111386858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.43154171113868578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.1768473984701097</v>
+        <v>0.17684739847010969</v>
       </c>
       <c r="B72">
         <v>0.2063599352723525</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.03349536874097836</v>
+        <v>3.349536874097836E-2</v>
       </c>
       <c r="B73">
-        <v>0.6416666079596914</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.64166660795969144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.9948899731165625</v>
+        <v>0.99488997311656246</v>
       </c>
       <c r="B74">
-        <v>0.3312212820634547</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.33122128206345469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.5972076956952248</v>
+        <v>0.59720769569522481</v>
       </c>
       <c r="B75">
-        <v>0.2489222202038515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.24892222020385149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.8795555664860364</v>
+        <v>0.87955556648603639</v>
       </c>
       <c r="B76">
-        <v>0.7079528404836852</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.70795284048368523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.5855471218442955</v>
+        <v>0.58554712184429547</v>
       </c>
       <c r="B77">
-        <v>0.8663938876356153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.86639388763561531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.5159574972198869</v>
+        <v>0.51595749721988693</v>
       </c>
       <c r="B78">
-        <v>0.5690304098762525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.56903040987625253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.260841762276312</v>
+        <v>0.26084176227631201</v>
       </c>
       <c r="B79">
         <v>0.1861493735454389</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.900428859950274</v>
       </c>
       <c r="B80">
-        <v>0.6849821732601259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.68498217326012589</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.04834863266757994</v>
+        <v>4.8348632667579938E-2</v>
       </c>
       <c r="B81">
-        <v>0.9111022061824831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.91110220618248305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.1940938579047784</v>
       </c>
       <c r="B82">
-        <v>0.4585666064316465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.45856660643164648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.3904159483907259</v>
+        <v>0.39041594839072591</v>
       </c>
       <c r="B83">
-        <v>0.150527302737308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.15052730273730799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.9661091507605276</v>
+        <v>0.96610915076052761</v>
       </c>
       <c r="B84">
-        <v>0.9381342257386712</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.93813422573867122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.6027667833668521</v>
+        <v>0.60276678336685208</v>
       </c>
       <c r="B85">
-        <v>0.3671563217932192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.36715632179321922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.4318642771020734</v>
+        <v>0.43186427710207342</v>
       </c>
       <c r="B86">
         <v>0.1525798073325243</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.6533201186538851</v>
+        <v>0.65332011865388506</v>
       </c>
       <c r="B87">
         <v>0.57364628447957</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.1669955998600209</v>
+        <v>0.16699559986002091</v>
       </c>
       <c r="B88">
-        <v>0.9522909315753917</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.95229093157539169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.1717945492937171</v>
       </c>
       <c r="B89">
-        <v>0.9679136954901457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.96791369549014572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.188133273638918</v>
+        <v>0.18813327363891799</v>
       </c>
       <c r="B90">
         <v>0.109518841275732</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.6983370863328566</v>
+        <v>0.69833708633285663</v>
       </c>
       <c r="B91">
-        <v>0.4340660561717138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.43406605617171379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.6603830041422203</v>
+        <v>0.66038300414222029</v>
       </c>
       <c r="B92">
-        <v>0.2051454423192847</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.20514544231928469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.119915106200769</v>
+        <v>0.11991510620076901</v>
       </c>
       <c r="B93">
         <v>0.1203472402030256</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.6503716114828727</v>
       </c>
       <c r="B94">
-        <v>0.6936957061868145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.69369570618681453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.6519336720289397</v>
       </c>
       <c r="B95">
-        <v>0.8855768550536285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.88557685505362849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.5341956144218805</v>
+        <v>0.53419561442188046</v>
       </c>
       <c r="B96">
-        <v>0.2493466112195251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.24934661121952509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.6263060751906194</v>
+        <v>0.62630607519061943</v>
       </c>
       <c r="B97">
-        <v>0.9770036977907582</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.97700369779075824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.3171021070079503</v>
+        <v>0.31710210700795027</v>
       </c>
       <c r="B98">
-        <v>0.7640876963655338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.76408769636553375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.2813149140575369</v>
+        <v>0.28131491405753689</v>
       </c>
       <c r="B99">
-        <v>0.5234635202370229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.52346352023702292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.5022681088910319</v>
+        <v>0.50226810889103191</v>
       </c>
       <c r="B100">
-        <v>0.5405765599204365</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.54057655992043652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.6098082807435506</v>
+        <v>0.60980828074355065</v>
       </c>
       <c r="B101">
         <v>0.2000225250984777</v>
